--- a/my_rank/白酒.xlsx
+++ b/my_rank/白酒.xlsx
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>787</v>
+        <v>1526</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6906019007391764</v>
+        <v>0.5575524176294394</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>899</v>
+        <v>1743</v>
       </c>
       <c r="D3" t="n">
-        <v>0.808870116156283</v>
+        <v>0.6504065040650406</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>894</v>
+        <v>1587</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8035902851108765</v>
+        <v>0.5836542575952075</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>271</v>
+        <v>467</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1457233368532207</v>
+        <v>0.1044073598630723</v>
       </c>
       <c r="E5" t="n">
         <v>18</v>
@@ -542,10 +542,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>972</v>
+        <v>2238</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8859556494192186</v>
+        <v>0.8622165169020112</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -561,13 +561,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>802</v>
+        <v>1662</v>
       </c>
       <c r="D7" t="n">
-        <v>0.706441393875396</v>
+        <v>0.6157466837826273</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -599,10 +599,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>834</v>
+        <v>1622</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7402323125659979</v>
+        <v>0.5986307231493367</v>
       </c>
       <c r="E9" t="n">
         <v>11</v>
@@ -618,10 +618,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>876</v>
+        <v>1734</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7845828933474129</v>
+        <v>0.6465554129225503</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1059</v>
+        <v>2465</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9778247096092925</v>
+        <v>0.959349593495935</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>218</v>
+        <v>398</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0897571277719113</v>
+        <v>0.07488232777064613</v>
       </c>
       <c r="E12" t="n">
         <v>19</v>
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>867</v>
+        <v>1810</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7750791974656811</v>
+        <v>0.6790757381258024</v>
       </c>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -694,13 +694,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>773</v>
+        <v>1573</v>
       </c>
       <c r="D14" t="n">
-        <v>0.675818373812038</v>
+        <v>0.5776636713735558</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>972</v>
+        <v>2122</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8859556494192186</v>
+        <v>0.8125802310654685</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>617</v>
+        <v>1086</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5110876451953538</v>
+        <v>0.3692768506632434</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>530</v>
+        <v>994</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4192185850052798</v>
+        <v>0.3299101412066752</v>
       </c>
       <c r="E17" t="n">
         <v>17</v>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1080</v>
+        <v>2560</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -789,10 +789,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>837</v>
+        <v>1623</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7434002111932418</v>
+        <v>0.599058622165169</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>878</v>
+        <v>1793</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7866948257655755</v>
+        <v>0.6718014548566539</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>744</v>
+        <v>1392</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6451953537486801</v>
+        <v>0.5002139495079161</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
